--- a/database/Balise(Récupération automatique).xlsx
+++ b/database/Balise(Récupération automatique).xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guigui\Documents\Code\Python Scripts\equitim-back\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75B4309-778D-4A97-B47B-1753D591E51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2D17D6-E72E-42D8-9804-98BE8E99DC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BF411BDE-D448-40FA-A81C-6C1497DFD6F0}"/>
+    <workbookView xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="15840" xr2:uid="{BF411BDE-D448-40FA-A81C-6C1497DFD6F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="324">
   <si>
     <t>Droit</t>
   </si>
@@ -633,9 +632,6 @@
     <t>TRA Max Remboursement anticipé</t>
   </si>
   <si>
-    <t xml:space="preserve"> -100, PDI</t>
-  </si>
-  <si>
     <t>2PDC, DEC</t>
   </si>
   <si>
@@ -700,9 +696,6 @@
   </si>
   <si>
     <t>Tri.paiement</t>
-  </si>
-  <si>
-    <t>Max</t>
   </si>
   <si>
     <t>TRA première remboursement 100% + Tous les coupons (scénario 3)</t>
@@ -1085,12 +1078,75 @@
   <si>
     <t>type_bar = degressif ou airbag alors ", ou si à la date de constatation finale(1), &lt;SJR1&gt; clôture à un &lt;SJR3&gt; supérieur ou égal à &lt;DBAC&gt; de son &lt;NDR&gt;"</t>
   </si>
+  <si>
+    <t>flux</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Tri.paiement (xirr en anglais)</t>
+  </si>
+  <si>
+    <t>NOMP1</t>
+  </si>
+  <si>
+    <t>NOM EN MAJUSCULE</t>
+  </si>
+  <si>
+    <t>NOM</t>
+  </si>
+  <si>
+    <t>NOM MAJ</t>
+  </si>
+  <si>
+    <t>NOMSOUSJACENT EN MAJUSCULE</t>
+  </si>
+  <si>
+    <t>NOMSOUSJACENTP1</t>
+  </si>
+  <si>
+    <t>NOMSOUSJACENT</t>
+  </si>
+  <si>
+    <t>NOMSOUSJACENT MAJ</t>
+  </si>
+  <si>
+    <t>SJR6 EN MAJUSCULE</t>
+  </si>
+  <si>
+    <t>SJR6P1</t>
+  </si>
+  <si>
+    <t>SJR6 MAJ</t>
+  </si>
+  <si>
+    <t>DUSEUIL</t>
+  </si>
+  <si>
+    <t>du seuil (si barriere degressive = des seuils)</t>
+  </si>
+  <si>
+    <t>EBACNDR</t>
+  </si>
+  <si>
+    <t>EBAC DE SON NDR (si barrière degressive, supprimer)</t>
+  </si>
+  <si>
+    <t>DESONNDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">si barriere degressive, = nul </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1145,6 +1201,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1316,10 +1379,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1384,6 +1448,12 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1403,8 +1473,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1725,8 +1796,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:S1048531"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1744,27 +1815,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="E1" s="52" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="E1" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="53"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="57"/>
       <c r="M1" s="16"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="57"/>
       <c r="M2" s="16"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -1778,7 +1849,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>13</v>
@@ -1805,7 +1876,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -1820,7 +1891,7 @@
         <v>24</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M4" s="16"/>
     </row>
@@ -1836,19 +1907,19 @@
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>257</v>
-      </c>
       <c r="I5" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M5" s="16"/>
     </row>
@@ -1863,7 +1934,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
@@ -1878,7 +1949,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M6" s="16"/>
     </row>
@@ -1893,7 +1964,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
@@ -1908,7 +1979,7 @@
         <v>10</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M7" s="16"/>
     </row>
@@ -1923,7 +1994,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>39</v>
@@ -1936,7 +2007,7 @@
         <v>41</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -1950,7 +2021,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>43</v>
@@ -1965,7 +2036,7 @@
         <v>44</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -1979,7 +2050,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>66</v>
@@ -1994,7 +2065,7 @@
         <v>68</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
@@ -2008,7 +2079,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>127</v>
@@ -2020,10 +2091,10 @@
         <v>129</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -2037,7 +2108,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>130</v>
@@ -2052,7 +2123,7 @@
         <v>133</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -2066,13 +2137,13 @@
         <v>12</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>134</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>136</v>
@@ -2081,7 +2152,7 @@
         <v>137</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -2095,7 +2166,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>138</v>
@@ -2110,7 +2181,7 @@
         <v>141</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -2124,7 +2195,7 @@
         <v>22</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>142</v>
@@ -2133,27 +2204,27 @@
         <v>143</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>264</v>
-      </c>
       <c r="D16" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>144</v>
@@ -2162,13 +2233,13 @@
         <v>145</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>146</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -2183,16 +2254,16 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H17" s="8" t="s">
         <v>243</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>245</v>
       </c>
       <c r="I17" s="14"/>
     </row>
@@ -2207,7 +2278,7 @@
         <v>22</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>147</v>
@@ -2219,10 +2290,10 @@
         <v>149</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -2236,7 +2307,7 @@
         <v>22</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>73</v>
@@ -2245,13 +2316,13 @@
         <v>74</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -2265,19 +2336,19 @@
         <v>22</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -2291,22 +2362,22 @@
         <v>22</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>63</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -2320,19 +2391,19 @@
         <v>22</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E22" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="H22" s="6" t="s">
         <v>259</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -2346,7 +2417,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E23" s="18"/>
     </row>
@@ -2361,7 +2432,7 @@
         <v>22</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E24" s="28" t="s">
         <v>20</v>
@@ -2385,7 +2456,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E25" s="28" t="s">
         <v>112</v>
@@ -2409,7 +2480,7 @@
         <v>22</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E26" s="28" t="s">
         <v>113</v>
@@ -2424,7 +2495,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D27" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E27" s="28" t="s">
         <v>114</v>
@@ -2472,33 +2543,33 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>64</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E30" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="H30" s="29" t="s">
         <v>249</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="G30" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="H30" s="29" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>232</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>12</v>
@@ -2515,17 +2586,17 @@
         <v>12</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F32" s="33" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
     </row>
     <row r="33" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>69</v>
@@ -2534,45 +2605,45 @@
         <v>12</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H33" s="34" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="32" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F34" s="33" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H34" s="34" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>70</v>
@@ -2581,19 +2652,19 @@
         <v>12</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E35" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="F35" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="F35" s="33" t="s">
-        <v>278</v>
-      </c>
       <c r="G35" s="33" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H35" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -2601,23 +2672,23 @@
         <v>49</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="32" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F36" s="33" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G36" s="33" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H36" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
@@ -2631,19 +2702,19 @@
         <v>12</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F37" s="33" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H37" s="34" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -2658,16 +2729,16 @@
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="32" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F38" s="33" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G38" s="33" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H38" s="34" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -2681,19 +2752,19 @@
         <v>12</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F39" s="33" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G39" s="33" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H39" s="34" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -2707,17 +2778,17 @@
         <v>12</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F40" s="33" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G40" s="33"/>
       <c r="H40" s="34" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -2731,7 +2802,7 @@
         <v>12</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E41" s="15"/>
       <c r="F41" s="14"/>
@@ -2749,7 +2820,7 @@
         <v>12</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E42" s="23"/>
     </row>
@@ -2764,7 +2835,7 @@
         <v>12</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E43" s="30" t="s">
         <v>21</v>
@@ -2785,12 +2856,12 @@
         <v>115</v>
       </c>
       <c r="K43" s="45" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>75</v>
@@ -2799,7 +2870,7 @@
         <v>12</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E44" s="30" t="s">
         <v>108</v>
@@ -2820,7 +2891,7 @@
         <v>92</v>
       </c>
       <c r="K44" s="46" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -2834,7 +2905,7 @@
         <v>12</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E45" s="30" t="s">
         <v>94</v>
@@ -2855,7 +2926,7 @@
         <v>92</v>
       </c>
       <c r="K45" s="46" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -2882,7 +2953,7 @@
         <v>116</v>
       </c>
       <c r="K46" s="46" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -2909,7 +2980,7 @@
         <v>116</v>
       </c>
       <c r="K47" s="47" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -2935,7 +3006,7 @@
         <v>116</v>
       </c>
       <c r="K48" s="47" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
@@ -2961,7 +3032,7 @@
         <v>116</v>
       </c>
       <c r="K49" s="47" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
@@ -2971,13 +3042,13 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B51" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="B51" s="24" t="s">
-        <v>267</v>
-      </c>
       <c r="C51" s="24" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E51" s="35" t="s">
         <v>47</v>
@@ -2990,13 +3061,13 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E52" s="35" t="s">
         <v>104</v>
@@ -3009,13 +3080,13 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="25" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E53" s="35" t="s">
         <v>106</v>
@@ -3028,13 +3099,13 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="25" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E54" s="35" t="s">
         <v>107</v>
@@ -3047,16 +3118,33 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="25" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>266</v>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A56" s="51" t="s">
+        <v>319</v>
+      </c>
+      <c r="B56" s="50" t="s">
+        <v>318</v>
+      </c>
+      <c r="C56" s="50" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A57" s="51" t="s">
+        <v>321</v>
+      </c>
+      <c r="B57" s="50" t="s">
+        <v>320</v>
+      </c>
       <c r="E57" s="4" t="s">
         <v>121</v>
       </c>
@@ -3065,6 +3153,12 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A58" s="51" t="s">
+        <v>323</v>
+      </c>
+      <c r="B58" s="50" t="s">
+        <v>322</v>
+      </c>
       <c r="E58" s="1" t="s">
         <v>123</v>
       </c>
@@ -3145,7 +3239,7 @@
       <c r="J69" s="10"/>
     </row>
     <row r="70" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E70" s="49" t="s">
+      <c r="E70" s="53" t="s">
         <v>108</v>
       </c>
       <c r="F70" s="22" t="s">
@@ -3155,13 +3249,13 @@
       <c r="H70" s="22"/>
     </row>
     <row r="71" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E71" s="50"/>
+      <c r="E71" s="54"/>
       <c r="F71" s="22"/>
       <c r="G71" s="22"/>
       <c r="H71" s="22"/>
     </row>
     <row r="72" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E72" s="48" t="s">
+      <c r="E72" s="52" t="s">
         <v>94</v>
       </c>
       <c r="F72" s="22" t="s">
@@ -3171,13 +3265,13 @@
       <c r="H72" s="22"/>
     </row>
     <row r="73" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E73" s="48"/>
+      <c r="E73" s="52"/>
       <c r="F73" s="22"/>
       <c r="G73" s="22"/>
       <c r="H73" s="22"/>
     </row>
     <row r="74" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E74" s="49" t="s">
+      <c r="E74" s="53" t="s">
         <v>109</v>
       </c>
       <c r="F74" s="22" t="s">
@@ -3187,13 +3281,13 @@
       <c r="H74" s="22"/>
     </row>
     <row r="75" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E75" s="50"/>
+      <c r="E75" s="54"/>
       <c r="F75" s="22"/>
       <c r="G75" s="22"/>
       <c r="H75" s="22"/>
     </row>
     <row r="76" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E76" s="48" t="s">
+      <c r="E76" s="52" t="s">
         <v>110</v>
       </c>
       <c r="F76" s="22" t="s">
@@ -3203,13 +3297,13 @@
       <c r="H76" s="22"/>
     </row>
     <row r="77" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E77" s="48"/>
+      <c r="E77" s="52"/>
       <c r="F77" s="22"/>
       <c r="G77" s="22"/>
       <c r="H77" s="22"/>
     </row>
     <row r="78" spans="5:10" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="E78" s="48" t="s">
+      <c r="E78" s="52" t="s">
         <v>101</v>
       </c>
       <c r="F78" s="22" t="s">
@@ -3219,13 +3313,13 @@
       <c r="H78" s="22"/>
     </row>
     <row r="79" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E79" s="48"/>
+      <c r="E79" s="52"/>
       <c r="F79" s="22"/>
       <c r="G79" s="22"/>
       <c r="H79" s="22"/>
     </row>
     <row r="80" spans="5:10" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="E80" s="49" t="s">
+      <c r="E80" s="53" t="s">
         <v>111</v>
       </c>
       <c r="F80" s="22" t="s">
@@ -3235,7 +3329,7 @@
       <c r="H80" s="22"/>
     </row>
     <row r="81" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E81" s="50"/>
+      <c r="E81" s="54"/>
       <c r="F81" s="22"/>
       <c r="G81" s="22"/>
       <c r="H81" s="22"/>
@@ -3259,79 +3353,79 @@
         <v>193</v>
       </c>
       <c r="I84" s="43" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E85" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F85" s="43"/>
       <c r="G85" s="43" t="s">
-        <v>221</v>
+        <v>306</v>
       </c>
       <c r="H85" s="43" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I85" s="43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E86" s="43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F86" s="43"/>
       <c r="G86" s="43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H86" s="43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I86" s="43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="87" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E87" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F87" s="43"/>
       <c r="G87" s="43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H87" s="43" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I87" s="43" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="88" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E88" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F88" s="43"/>
       <c r="G88" s="43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H88" s="43" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I88" s="43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="89" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E89" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F89" s="43"/>
       <c r="G89" s="43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H89" s="43" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I89" s="43">
         <v>-100</v>
@@ -3339,11 +3433,11 @@
     </row>
     <row r="90" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E90" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F90" s="43"/>
       <c r="G90" s="43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H90" s="43" t="s">
         <v>195</v>
@@ -3356,28 +3450,28 @@
       <c r="E91" s="43"/>
       <c r="F91" s="43"/>
       <c r="G91" s="43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H91" s="43" t="s">
         <v>195</v>
       </c>
       <c r="I91" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="92" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E92" s="43" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F92" s="43"/>
       <c r="G92" s="43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H92" s="43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I92" s="43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="93" spans="5:9" x14ac:dyDescent="0.3">
@@ -3386,28 +3480,28 @@
       </c>
       <c r="F93" s="43"/>
       <c r="G93" s="43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H93" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="I93" s="43" t="s">
         <v>214</v>
-      </c>
-      <c r="I93" s="43" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="94" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E94" s="43" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F94" s="43"/>
       <c r="G94" s="43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H94" s="43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I94" s="43" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="95" spans="5:9" x14ac:dyDescent="0.3">
@@ -3416,10 +3510,10 @@
       </c>
       <c r="F95" s="43"/>
       <c r="G95" s="43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H95" s="43" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I95" s="43"/>
     </row>
@@ -3435,13 +3529,9 @@
         <v>187</v>
       </c>
       <c r="F97" s="43"/>
-      <c r="G97" s="43" t="s">
-        <v>222</v>
-      </c>
+      <c r="G97" s="43"/>
       <c r="H97" s="43"/>
-      <c r="I97" s="43">
-        <v>-100</v>
-      </c>
+      <c r="I97" s="43"/>
     </row>
     <row r="98" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E98" s="43" t="s">
@@ -3449,12 +3539,8 @@
       </c>
       <c r="F98" s="43"/>
       <c r="G98" s="43"/>
-      <c r="H98" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="I98" s="43">
-        <v>-100</v>
-      </c>
+      <c r="H98" s="43"/>
+      <c r="I98" s="43"/>
     </row>
     <row r="99" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E99" s="43" t="s">
@@ -3462,12 +3548,8 @@
       </c>
       <c r="F99" s="43"/>
       <c r="G99" s="43"/>
-      <c r="H99" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="I99" s="43" t="s">
-        <v>199</v>
-      </c>
+      <c r="H99" s="43"/>
+      <c r="I99" s="43"/>
     </row>
     <row r="100" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E100" s="43" t="s">
@@ -3475,12 +3557,8 @@
       </c>
       <c r="F100" s="43"/>
       <c r="G100" s="43"/>
-      <c r="H100" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="I100" s="43">
-        <v>-100</v>
-      </c>
+      <c r="H100" s="43"/>
+      <c r="I100" s="43"/>
     </row>
     <row r="101" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E101" s="43" t="s">
@@ -3488,12 +3566,8 @@
       </c>
       <c r="F101" s="43"/>
       <c r="G101" s="43"/>
-      <c r="H101" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="I101" s="43">
-        <v>-100</v>
-      </c>
+      <c r="H101" s="43"/>
+      <c r="I101" s="43"/>
     </row>
     <row r="102" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E102" s="43" t="s">
@@ -3501,12 +3575,8 @@
       </c>
       <c r="F102" s="43"/>
       <c r="G102" s="43"/>
-      <c r="H102" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="I102" s="43">
-        <v>-100</v>
-      </c>
+      <c r="H102" s="43"/>
+      <c r="I102" s="43"/>
     </row>
     <row r="103" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E103" s="43" t="s">
@@ -3514,12 +3584,8 @@
       </c>
       <c r="F103" s="43"/>
       <c r="G103" s="43"/>
-      <c r="H103" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="I103" s="43">
-        <v>-100</v>
-      </c>
+      <c r="H103" s="43"/>
+      <c r="I103" s="43"/>
     </row>
     <row r="104" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E104" s="43" t="s">
@@ -3527,12 +3593,8 @@
       </c>
       <c r="F104" s="43"/>
       <c r="G104" s="43"/>
-      <c r="H104" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="I104" s="43">
-        <v>-100</v>
-      </c>
+      <c r="H104" s="43"/>
+      <c r="I104" s="43"/>
     </row>
     <row r="105" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E105" s="44" t="s">
@@ -3540,10 +3602,50 @@
       </c>
       <c r="F105" s="43"/>
       <c r="G105" s="43"/>
-      <c r="H105" s="43" t="s">
-        <v>195</v>
-      </c>
+      <c r="H105" s="43"/>
       <c r="I105" s="43"/>
+    </row>
+    <row r="110" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E110" t="s">
+        <v>308</v>
+      </c>
+      <c r="F110" t="s">
+        <v>307</v>
+      </c>
+      <c r="G110" t="s">
+        <v>309</v>
+      </c>
+      <c r="H110" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="111" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E111" t="s">
+        <v>311</v>
+      </c>
+      <c r="F111" t="s">
+        <v>312</v>
+      </c>
+      <c r="G111" t="s">
+        <v>313</v>
+      </c>
+      <c r="H111" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="112" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E112" t="s">
+        <v>315</v>
+      </c>
+      <c r="F112" t="s">
+        <v>316</v>
+      </c>
+      <c r="G112" t="s">
+        <v>297</v>
+      </c>
+      <c r="H112" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="1048531" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E1048531" s="16"/>
@@ -3567,19 +3669,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA606D19-4A88-4010-AE63-6ABBF03F4DC8}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="A1:XFD1048576"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="56.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="89.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B2" s="48">
+        <v>43831</v>
+      </c>
+      <c r="C2" s="48">
+        <v>44197</v>
+      </c>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="G2" s="49">
+        <f>XIRR(B3:E3,B2:E2)</f>
+        <v>-0.89936889559030508</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B3">
+        <v>-100</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
